--- a/数据整理/stocks/A股/深证主板/000547-航天发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000547-航天发展.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6061,4 +6062,1158 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>131.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1016</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5214</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4903</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>67.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3518</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3007</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>58.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9763</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8982</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>57.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8151</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5427</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1246</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7772</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6255</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5600</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4270</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3966</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3733</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3359</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3115</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2830</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002749</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实稳盛债券</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>512350</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业中证福建50ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000547-航天发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000547-航天发展.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7216,4 +7217,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7721</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0689</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4970</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2611</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000547-航天发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000547-航天发展.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7577,4 +7578,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>110</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000547-航天发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000547-航天发展.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7586,7 +7587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7597,17 +7598,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7617,14 +7638,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.08</v>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3764</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -7633,14 +7676,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.87</v>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2689</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7649,14 +7714,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25.07</v>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5989</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -7665,13 +7752,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6513</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4513</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>110</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>56.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000547-航天发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000547-航天发展.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8099,7 +8100,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8110,17 +8111,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8130,14 +8151,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.97</v>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -8146,14 +8189,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>5.08</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="4">
@@ -8162,14 +8295,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>26.87</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="5">
@@ -8178,14 +8311,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>25.07</v>
+        <v>26.87</v>
       </c>
     </row>
     <row r="6">
@@ -8194,13 +8327,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25.07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>110</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>56.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000547-航天发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000547-航天发展.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8232,7 +8233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8243,17 +8244,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8263,14 +8284,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3827</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -8279,14 +8322,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.97</v>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0763</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -8295,14 +8360,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.08</v>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -8311,14 +8398,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>26.87</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="6">
@@ -8327,14 +8536,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>25.07</v>
+        <v>26.87</v>
       </c>
     </row>
     <row r="7">
@@ -8343,13 +8552,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25.07</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>110</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>56.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000547-航天发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000547-航天发展.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3.54</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>11.97</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>5.08</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>26.87</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>25.07</v>
+        <v>26.87</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.07</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>110</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>56.09</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -939,7 +1088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1451,7 +1600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1811,7 +1960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2965,7 +3114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4351,7 +4500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
